--- a/data/trans_camb/P3A_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P3A_R-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
